--- a/FIT_DCS_states.xlsx
+++ b/FIT_DCS_states.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmitr\YandexDisk\DATA\Library\Materials\MyMaterials\FIT-DCS-docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmitr\YandexDisk\Git\FIT-DCS-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842978A0-BF3D-4A97-80F8-D861B63682A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9D8CD4-05F4-4665-AD75-0B147956C06F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="45120" windowHeight="26136" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView minimized="1" xWindow="-13080" yWindow="21210" windowWidth="17280" windowHeight="9300" xr2:uid="{0C8E8004-0A1D-4FC5-B6EF-A64B244AF929}"/>
+    <workbookView xWindow="7452" yWindow="1488" windowWidth="17328" windowHeight="14112" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DCS subsystem errors" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="199">
   <si>
     <t>FIT DCS errors table</t>
   </si>
@@ -487,9 +486,6 @@
     <t>Unstable MCP temperature</t>
   </si>
   <si>
-    <t>Bias current differ from the default value by more than 0.5%. Stable bias voltage of the default value. Small (dew %) change in gain of the four corresponding channels.</t>
-  </si>
-  <si>
     <t>• offline MCP gain correction may be need</t>
   </si>
   <si>
@@ -619,6 +615,75 @@
 • GBT link failed
 • GBT RX error flag
 • GBT phase error</t>
+  </si>
+  <si>
+    <t>Bias current differ from the default value by more than 0.5%. Stable bias voltage of the default value. Small (few %) change in gain of the four corresponding channels.</t>
+  </si>
+  <si>
+    <t>MCP failure modes</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>&gt; 0,5%</t>
+  </si>
+  <si>
+    <t>voltage</t>
+  </si>
+  <si>
+    <t>changed propotional</t>
+  </si>
+  <si>
+    <t>PM ch rate</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>&lt; 3s</t>
+  </si>
+  <si>
+    <t>&gt; 3s</t>
+  </si>
+  <si>
+    <t>stable, is not changed</t>
+  </si>
+  <si>
+    <t>saturation mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Small (few %) change in gain of the four corresponding channels.</t>
+  </si>
+  <si>
+    <t>MCP break down</t>
+  </si>
+  <si>
+    <t>&gt; 10%</t>
+  </si>
+  <si>
+    <t>&gt; 1s</t>
+  </si>
+  <si>
+    <t>HV system break down</t>
+  </si>
+  <si>
+    <t>drop more than 10% (if rate is 0, warning)</t>
+  </si>
+  <si>
+    <t>may affected to groupe MCPs</t>
+  </si>
+  <si>
+    <t>manual off</t>
+  </si>
+  <si>
+    <t>auto off</t>
   </si>
 </sst>
 </file>
@@ -673,7 +738,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -696,77 +761,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="32">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -865,6 +870,72 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -913,8 +984,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="24149460"/>
-          <a:ext cx="12105310" cy="4274119"/>
+          <a:off x="0" y="26886945"/>
+          <a:ext cx="12122455" cy="4325554"/>
           <a:chOff x="3747" y="0"/>
           <a:chExt cx="12077183" cy="4239492"/>
         </a:xfrm>
@@ -1627,39 +1698,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3741DBE9-6219-47C1-B618-C8C4F451EECB}" name="Таблица3" displayName="Таблица3" ref="A2:O30" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3741DBE9-6219-47C1-B618-C8C4F451EECB}" name="Таблица3" displayName="Таблица3" ref="A2:O30" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A2:O30" xr:uid="{FF517E09-3AA4-421C-9AC5-AC7BE6EE668D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O29">
-    <sortCondition descending="1" ref="B2:B29"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O30">
+    <sortCondition ref="B2:B30"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{EF908C5B-EBB3-46A2-99DC-5AA1C3F77B78}" name="type" dataDxfId="18"/>
-    <tableColumn id="16" xr3:uid="{6AF67EB9-2FE6-4539-B510-19E40B0CD23E}" name="groupe" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{58BD7262-B4FE-4599-86D0-949285B6C286}" name="name" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{4F773F85-4487-4723-9B22-13AB3EE4FBCC}" name="description" dataDxfId="15"/>
-    <tableColumn id="17" xr3:uid="{0D56444E-A7CA-4FA0-B542-D9971B8EBC0E}" name="comment" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{97AA81A9-6408-43B9-8414-CC2BB65CB1A9}" name="DCS datapoint" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{306CC67C-7D48-414F-8EDF-AABFB8195A71}" name="value range" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{3D2D4FB9-4CE9-4976-AF53-B39A327F1139}" name="FPGA/HW action" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{442228FE-B0D4-41B2-BAAB-0FCCB1BD6FA3}" name="control server action" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{921DB6B1-DE69-4087-BB08-97647D6147B3}" name="WinCC action" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{03165A14-3E7B-4B21-BE37-252BD5B9C318}" name="Operator action" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{4A8DEE0A-78A9-44F4-A2EF-35494756DFF5}" name="affected FSM nodes" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{50D8B6F5-14A0-4A33-8C71-C5C4438953A0}" name="same for FIT subsystems" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{1EE51F9E-3AB2-4D29-9E51-D76B96C96C29}" name="affection to ALICE data taking" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{0AD9DB07-D193-43B1-82C4-1A144AA5CF86}" name="expected probability" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{EF908C5B-EBB3-46A2-99DC-5AA1C3F77B78}" name="type" dataDxfId="29"/>
+    <tableColumn id="16" xr3:uid="{6AF67EB9-2FE6-4539-B510-19E40B0CD23E}" name="groupe" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{58BD7262-B4FE-4599-86D0-949285B6C286}" name="name" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{4F773F85-4487-4723-9B22-13AB3EE4FBCC}" name="description" dataDxfId="26"/>
+    <tableColumn id="17" xr3:uid="{0D56444E-A7CA-4FA0-B542-D9971B8EBC0E}" name="comment" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{97AA81A9-6408-43B9-8414-CC2BB65CB1A9}" name="DCS datapoint" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{306CC67C-7D48-414F-8EDF-AABFB8195A71}" name="value range" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{3D2D4FB9-4CE9-4976-AF53-B39A327F1139}" name="FPGA/HW action" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{442228FE-B0D4-41B2-BAAB-0FCCB1BD6FA3}" name="control server action" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{921DB6B1-DE69-4087-BB08-97647D6147B3}" name="WinCC action" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{03165A14-3E7B-4B21-BE37-252BD5B9C318}" name="Operator action" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{4A8DEE0A-78A9-44F4-A2EF-35494756DFF5}" name="affected FSM nodes" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{50D8B6F5-14A0-4A33-8C71-C5C4438953A0}" name="same for FIT subsystems" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{1EE51F9E-3AB2-4D29-9E51-D76B96C96C29}" name="affection to ALICE data taking" dataDxfId="16"/>
+    <tableColumn id="14" xr3:uid="{0AD9DB07-D193-43B1-82C4-1A144AA5CF86}" name="expected probability" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6AC42440-F276-49B3-A9F7-4FAF9A6E32EA}" name="Таблица1" displayName="Таблица1" ref="A2:C9" totalsRowShown="0" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6AC42440-F276-49B3-A9F7-4FAF9A6E32EA}" name="Таблица1" displayName="Таблица1" ref="A2:C9" totalsRowShown="0" dataDxfId="14">
   <autoFilter ref="A2:C9" xr:uid="{3E804175-CCC4-4864-A235-BF43805967E6}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{41DBE7E7-0FAD-4E55-BE3D-3DCE1EBA236A}" name="name" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{D6D46D39-8A28-4E6B-88AA-F9D6D5282FAD}" name="description" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{649F1DFB-713D-4DE2-B8BF-FC6F1E918151}" name="related errors" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{41DBE7E7-0FAD-4E55-BE3D-3DCE1EBA236A}" name="name" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{D6D46D39-8A28-4E6B-88AA-F9D6D5282FAD}" name="description" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{649F1DFB-713D-4DE2-B8BF-FC6F1E918151}" name="related errors" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1928,13 +1999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="1">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2023,16 +2091,16 @@
     </row>
     <row r="3" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>20</v>
@@ -2044,16 +2112,16 @@
         <v>21</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
@@ -2061,34 +2129,37 @@
         <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>116</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>30</v>
+        <v>119</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2096,30 +2167,34 @@
         <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>93</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="J5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="L5" s="1" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>38</v>
+      <c r="N5" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2127,51 +2202,51 @@
         <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>41</v>
+        <v>93</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>42</v>
+      <c r="I6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>37</v>
+      <c r="N6" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>93</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>107</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="K7" s="2"/>
       <c r="M7" s="1" t="s">
@@ -2180,31 +2255,29 @@
     </row>
     <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K8" s="2"/>
       <c r="L8" s="1" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>24</v>
@@ -2215,204 +2288,213 @@
         <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>53</v>
+        <v>86</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>55</v>
+        <v>88</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>51</v>
+        <v>77</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>51</v>
+      <c r="K12" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>23</v>
+        <v>77</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K14" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="M14" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>154</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="5" t="s">
         <v>20</v>
       </c>
@@ -2420,19 +2502,19 @@
         <v>20</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>152</v>
+        <v>21</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
@@ -2443,12 +2525,14 @@
         <v>77</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E16" s="5"/>
+        <v>141</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5" t="s">
@@ -2461,7 +2545,7 @@
         <v>82</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>80</v>
@@ -2470,425 +2554,400 @@
         <v>20</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="5" t="s">
+      <c r="C17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="M17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="M20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="K21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="5" t="s">
+      <c r="B23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K20" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K22" s="2"/>
-      <c r="M22" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="K23" s="2" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N23" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>94</v>
+        <v>47</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>97</v>
+        <v>20</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>101</v>
+        <v>47</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>102</v>
+        <v>66</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>103</v>
+        <v>68</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>106</v>
+        <v>17</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="K26" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="M26" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="K27" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="L27" s="1" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="N27" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>121</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="J28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K28" s="2"/>
       <c r="L28" s="1" t="s">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N28" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>125</v>
+        <v>17</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>20</v>
@@ -2897,74 +2956,255 @@
         <v>20</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N29" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>129</v>
+        <v>17</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="K30" s="2"/>
+      <c r="M30" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B63" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G64" s="8"/>
+      <c r="I64" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G65" s="8"/>
+    </row>
+    <row r="66" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B66" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G66" s="8"/>
+    </row>
+    <row r="67" spans="2:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G67" s="8"/>
+    </row>
+    <row r="68" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G68" s="9"/>
+      <c r="H68" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B69" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G69" s="8"/>
+      <c r="I69" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G70" s="8"/>
+      <c r="I70" s="1" t="s">
+        <v>198</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="9">
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="B62:I62"/>
     <mergeCell ref="A1:O1"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F66:G66"/>
   </mergeCells>
   <conditionalFormatting sqref="M20:M1048576 M1:M14 M17:M18">
-    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="29" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"stable"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"error"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>"warning"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="cellIs" dxfId="26" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2981,10 +3221,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F520A706-8EAC-4F21-8572-AC9BB0F42187}">
   <dimension ref="A2:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3001,84 +3240,84 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
   </sheetData>
